--- a/public/template/template-kepesertaan.xlsx
+++ b/public/template/template-kepesertaan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramdoni/Data/Projects/PT Asuransi Reliance Indonesia/Syariah/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/syariah/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB58B31-7086-D641-AB84-A30425A9B7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CC2381-B605-1246-951B-5C83D06FD465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -77,283 +77,7 @@
     <t>NO AKAD KREDIT</t>
   </si>
   <si>
-    <t>EVA WULANDARI</t>
-  </si>
-  <si>
-    <t>RINAL ALFIANDI</t>
-  </si>
-  <si>
-    <t>ANDRA ALFITRA</t>
-  </si>
-  <si>
-    <t>MASYITOH BEBY MUNAWAROH D</t>
-  </si>
-  <si>
-    <t>RIZKY FITRIANSYAH</t>
-  </si>
-  <si>
-    <t>BRIYANDANA</t>
-  </si>
-  <si>
-    <t>SYAIFUL PUTRA</t>
-  </si>
-  <si>
-    <t>APRYANSYAH YUSMAN</t>
-  </si>
-  <si>
-    <t>SITI ROFIYAH</t>
-  </si>
-  <si>
-    <t>SULISTYOWATI</t>
-  </si>
-  <si>
-    <t>YAYA SUTARYA</t>
-  </si>
-  <si>
-    <t>YAYAN</t>
-  </si>
-  <si>
-    <t>H LUSI YENJELI, S.PSI.</t>
-  </si>
-  <si>
-    <t>NAZARIAH</t>
-  </si>
-  <si>
-    <t>MUHAMMAD NASIR</t>
-  </si>
-  <si>
-    <t>FAUZAN</t>
-  </si>
-  <si>
-    <t>SRI WAHYUNI</t>
-  </si>
-  <si>
-    <t>NURJANNAH</t>
-  </si>
-  <si>
-    <t>AMNA HASYZIA</t>
-  </si>
-  <si>
-    <t>YUSRIANTI</t>
-  </si>
-  <si>
-    <t>EVAWATI</t>
-  </si>
-  <si>
-    <t>ISKANDAR</t>
-  </si>
-  <si>
-    <t>IRAWATI</t>
-  </si>
-  <si>
-    <t>SUDIANSYAH IDRIS</t>
-  </si>
-  <si>
-    <t>ANWAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IHSAN </t>
-  </si>
-  <si>
-    <t>T. RUSLI</t>
-  </si>
-  <si>
-    <t>MUCHTAR</t>
-  </si>
-  <si>
-    <t>MUAMAR, SE</t>
-  </si>
-  <si>
-    <t>HUSAINI</t>
-  </si>
-  <si>
-    <t>ZULFIKAR</t>
-  </si>
-  <si>
-    <t>AMRIZAL</t>
-  </si>
-  <si>
-    <t>MULIADI</t>
-  </si>
-  <si>
-    <t>ANWAR ABDULLAH</t>
-  </si>
-  <si>
-    <t>DR. EKA HANDAYANI ERFIN</t>
-  </si>
-  <si>
-    <t>ADI KUSWOYO</t>
-  </si>
-  <si>
-    <t>RIYAN MUSTOPA</t>
-  </si>
-  <si>
-    <t>325.711.240.22.00015/000/000</t>
-  </si>
-  <si>
-    <t>325.711.240.22.00016/000/000</t>
-  </si>
-  <si>
-    <t>325.711.240.22.00017/000/000</t>
-  </si>
-  <si>
-    <t>325.711.240.22.00018/000/000</t>
-  </si>
-  <si>
-    <t>325.711.240.22.00019/000/000</t>
-  </si>
-  <si>
-    <t>325.711.240.22.00020/000/000</t>
-  </si>
-  <si>
-    <t>325.711.240.22.00021/000/000</t>
-  </si>
-  <si>
-    <t>325.711.240.22.00022/000/000</t>
-  </si>
-  <si>
-    <t>538.711.240.22.00349/000/000</t>
-  </si>
-  <si>
-    <t>538.711.240.22.00350/000/000</t>
-  </si>
-  <si>
-    <t>209.798.240.22.40003/000/000</t>
-  </si>
-  <si>
-    <t>209.798.240.22.80003/000/000</t>
-  </si>
-  <si>
-    <t>209.798.240.22.80004/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00366/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00374/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00376/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00378/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00379/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00381/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00384/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00389/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00392/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00397/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00398/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00399/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00400/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00401/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00405/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00406/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00407/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00408/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00409/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00413/000/000</t>
-  </si>
-  <si>
-    <t>305.798.240.22.00415/000/000</t>
-  </si>
-  <si>
-    <t>325.798.240.22.00015/000/000</t>
-  </si>
-  <si>
-    <t>326.798.240.22.70013/000/000</t>
-  </si>
-  <si>
-    <t>426.798.200.22.00277/000/000</t>
-  </si>
-  <si>
-    <t>PT. BANK SUMUT CAB. SYARIAH MEDAN</t>
-  </si>
-  <si>
-    <t>PT. BANK PRIMA MASTER CABANG SEMARANG</t>
-  </si>
-  <si>
-    <t>PT BANK MEGA SYARIAH</t>
-  </si>
-  <si>
-    <t>PT BANK SYARIAH INDONESIA TBK KCP CIKAMPEK A YANI</t>
-  </si>
-  <si>
-    <t>PT. BANK SYARIAH INDONESIA KCP BEUREUNUN 2</t>
-  </si>
-  <si>
-    <t>PT. BANK SYARIAH INDONESIA KC BIREUN SIMPANG IV</t>
-  </si>
-  <si>
-    <t>BSI KCP PEUNAYONG</t>
-  </si>
-  <si>
-    <t>PT. BANK SYARIAH INDONESIA KCP LANGSA ISKANDAR MUDA</t>
-  </si>
-  <si>
-    <t>PT. BSI KCP  SOETA 2 LAMBARO</t>
-  </si>
-  <si>
-    <t>PT. BANK KB BUKOPIN SYARIAH CAB. MEDAN</t>
-  </si>
-  <si>
-    <t>PT. Bank SUMSEL BABEL Cabang Syariah Baturaja</t>
-  </si>
-  <si>
-    <t>PT. BANK SYARIAH MANDIRI KC BUAH BATU</t>
-  </si>
-  <si>
     <t>CAB</t>
-  </si>
-  <si>
-    <t>KP.TAKAFUL MEDAN</t>
-  </si>
-  <si>
-    <t>KP.TAKAFUL SURABAYA</t>
-  </si>
-  <si>
-    <t>Jasindo Syariah</t>
-  </si>
-  <si>
-    <t>BANDA ACEH</t>
-  </si>
-  <si>
-    <t>KP.TAKAFUL PALEMBANG</t>
-  </si>
-  <si>
-    <t>KP.TAKAFUL BANDUNG</t>
   </si>
   <si>
     <t>Berat Badan (KG)</t>
@@ -601,6 +325,15 @@
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,15 +351,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -1003,10 +727,10 @@
   <dimension ref="A1:U807"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3:Q39"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1032,1557 +756,545 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="6"/>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="23"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B3" s="9"/>
       <c r="D3" s="10"/>
-      <c r="G3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="11">
-        <v>33432</v>
-      </c>
+      <c r="K3" s="11"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="11">
-        <v>44650</v>
-      </c>
-      <c r="N3" s="11">
-        <v>48283</v>
-      </c>
-      <c r="O3" s="13">
-        <v>150000000</v>
-      </c>
-      <c r="P3" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>70</v>
-      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
     </row>
     <row r="4" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <f>+A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="9"/>
       <c r="D4" s="10"/>
-      <c r="G4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="11">
-        <v>33433</v>
-      </c>
+      <c r="K4" s="11"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="11">
-        <v>44650</v>
-      </c>
-      <c r="N4" s="11">
-        <v>48283</v>
-      </c>
-      <c r="O4" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="P4" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>70</v>
-      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <f t="shared" ref="A5:A39" si="0">+A4+1</f>
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B5" s="9"/>
       <c r="D5" s="10"/>
-      <c r="G5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="11">
-        <v>33434</v>
-      </c>
+      <c r="K5" s="11"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="11">
-        <v>44665</v>
-      </c>
-      <c r="N5" s="11">
-        <v>46491</v>
-      </c>
-      <c r="O5" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="P5" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>70</v>
-      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="B6" s="9"/>
       <c r="D6" s="10"/>
-      <c r="G6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="11">
-        <v>33435</v>
-      </c>
+      <c r="K6" s="11"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="11">
-        <v>44665</v>
-      </c>
-      <c r="N6" s="11">
-        <v>46491</v>
-      </c>
-      <c r="O6" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="P6" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>70</v>
-      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="B7" s="9"/>
       <c r="D7" s="10"/>
-      <c r="G7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="11">
-        <v>33436</v>
-      </c>
+      <c r="K7" s="11"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="11">
-        <v>44665</v>
-      </c>
-      <c r="N7" s="11">
-        <v>46491</v>
-      </c>
-      <c r="O7" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="P7" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>70</v>
-      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="D8" s="10"/>
-      <c r="G8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="11">
-        <v>33437</v>
-      </c>
+      <c r="K8" s="11"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="11">
-        <v>44665</v>
-      </c>
-      <c r="N8" s="11">
-        <v>46491</v>
-      </c>
-      <c r="O8" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="P8" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q8" s="13">
-        <v>70</v>
-      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B9" s="9"/>
       <c r="D9" s="10"/>
-      <c r="G9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="11">
-        <v>33438</v>
-      </c>
+      <c r="K9" s="11"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="11">
-        <v>44663</v>
-      </c>
-      <c r="N9" s="11">
-        <v>46489</v>
-      </c>
-      <c r="O9" s="13">
-        <v>70000000</v>
-      </c>
-      <c r="P9" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>70</v>
-      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
     <row r="10" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="B10" s="9"/>
       <c r="D10" s="10"/>
-      <c r="G10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="11">
-        <v>33439</v>
-      </c>
+      <c r="K10" s="11"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="11">
-        <v>44672</v>
-      </c>
-      <c r="N10" s="11">
-        <v>48325</v>
-      </c>
-      <c r="O10" s="13">
-        <v>127000000</v>
-      </c>
-      <c r="P10" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>70</v>
-      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
     <row r="11" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="B11" s="9"/>
       <c r="D11" s="10"/>
-      <c r="G11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="11">
-        <v>33440</v>
-      </c>
+      <c r="K11" s="11"/>
       <c r="L11" s="12"/>
-      <c r="M11" s="11">
-        <v>44649</v>
-      </c>
-      <c r="N11" s="11">
-        <v>45380</v>
-      </c>
-      <c r="O11" s="13">
-        <v>30000000</v>
-      </c>
-      <c r="P11" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>70</v>
-      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
     <row r="12" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="B12" s="9"/>
       <c r="D12" s="10"/>
-      <c r="G12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="11">
-        <v>33441</v>
-      </c>
+      <c r="K12" s="11"/>
       <c r="L12" s="12"/>
-      <c r="M12" s="11">
-        <v>44649</v>
-      </c>
-      <c r="N12" s="11">
-        <v>45380</v>
-      </c>
-      <c r="O12" s="13">
-        <v>15000000</v>
-      </c>
-      <c r="P12" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>70</v>
-      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
     <row r="13" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B13" s="9"/>
       <c r="D13" s="10"/>
-      <c r="G13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="11">
-        <v>33442</v>
-      </c>
+      <c r="K13" s="11"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="11">
-        <v>44644</v>
-      </c>
-      <c r="N13" s="11">
-        <v>48297</v>
-      </c>
-      <c r="O13" s="13">
-        <v>594490000</v>
-      </c>
-      <c r="P13" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>70</v>
-      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
     <row r="14" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="B14" s="9"/>
       <c r="D14" s="10"/>
-      <c r="G14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="11">
-        <v>33443</v>
-      </c>
+      <c r="K14" s="11"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="11">
-        <v>44650</v>
-      </c>
-      <c r="N14" s="11">
-        <v>45746</v>
-      </c>
-      <c r="O14" s="13">
-        <v>50000000</v>
-      </c>
-      <c r="P14" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>70</v>
-      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
     <row r="15" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="B15" s="9"/>
       <c r="D15" s="10"/>
-      <c r="G15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="11">
-        <v>33444</v>
-      </c>
+      <c r="K15" s="11"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="11">
-        <v>44650</v>
-      </c>
-      <c r="N15" s="11">
-        <v>45199</v>
-      </c>
-      <c r="O15" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="P15" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>70</v>
-      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
     <row r="16" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="B16" s="9"/>
       <c r="D16" s="10"/>
-      <c r="G16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="11">
-        <v>33445</v>
-      </c>
+      <c r="K16" s="11"/>
       <c r="L16" s="12"/>
-      <c r="M16" s="11">
-        <v>44642</v>
-      </c>
-      <c r="N16" s="11">
-        <v>45191</v>
-      </c>
-      <c r="O16" s="13">
-        <v>25000000</v>
-      </c>
-      <c r="P16" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>70</v>
-      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>28</v>
-      </c>
+    <row r="17" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
       <c r="D17" s="10"/>
-      <c r="G17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="11">
-        <v>33446</v>
-      </c>
+      <c r="K17" s="11"/>
       <c r="L17" s="12"/>
-      <c r="M17" s="11">
-        <v>44644</v>
-      </c>
-      <c r="N17" s="11">
-        <v>45375</v>
-      </c>
-      <c r="O17" s="13">
-        <v>50000000</v>
-      </c>
-      <c r="P17" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>70</v>
-      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>29</v>
-      </c>
+    <row r="18" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
       <c r="D18" s="10"/>
-      <c r="G18" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="11">
-        <v>33447</v>
-      </c>
+      <c r="K18" s="11"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="11">
-        <v>44644</v>
-      </c>
-      <c r="N18" s="11">
-        <v>45375</v>
-      </c>
-      <c r="O18" s="13">
-        <v>50000000</v>
-      </c>
-      <c r="P18" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>70</v>
-      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>30</v>
-      </c>
+    <row r="19" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
       <c r="D19" s="10"/>
-      <c r="G19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="11">
-        <v>33448</v>
-      </c>
+      <c r="K19" s="11"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="11">
-        <v>44643</v>
-      </c>
-      <c r="N19" s="11">
-        <v>45739</v>
-      </c>
-      <c r="O19" s="13">
-        <v>300000000</v>
-      </c>
-      <c r="P19" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>70</v>
-      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>31</v>
-      </c>
+    <row r="20" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
       <c r="D20" s="10"/>
-      <c r="G20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K20" s="11">
-        <v>33449</v>
-      </c>
+      <c r="K20" s="11"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="11">
-        <v>44645</v>
-      </c>
-      <c r="N20" s="11">
-        <v>46106</v>
-      </c>
-      <c r="O20" s="13">
-        <v>230000000</v>
-      </c>
-      <c r="P20" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>70</v>
-      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>32</v>
-      </c>
+    <row r="21" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
       <c r="D21" s="10"/>
-      <c r="G21" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="11">
-        <v>33450</v>
-      </c>
+      <c r="K21" s="11"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="11">
-        <v>44644</v>
-      </c>
-      <c r="N21" s="11">
-        <v>45375</v>
-      </c>
-      <c r="O21" s="13">
-        <v>15000000</v>
-      </c>
-      <c r="P21" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>70</v>
-      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
     </row>
-    <row r="22" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>33</v>
-      </c>
+    <row r="22" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
       <c r="D22" s="10"/>
-      <c r="G22" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" s="11">
-        <v>33451</v>
-      </c>
+      <c r="K22" s="11"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="11">
-        <v>44648</v>
-      </c>
-      <c r="N22" s="11">
-        <v>45744</v>
-      </c>
-      <c r="O22" s="13">
-        <v>50000000</v>
-      </c>
-      <c r="P22" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="13">
-        <v>70</v>
-      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>34</v>
-      </c>
+    <row r="23" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
       <c r="D23" s="10"/>
-      <c r="G23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="11">
-        <v>33452</v>
-      </c>
+      <c r="K23" s="11"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="11">
-        <v>44644</v>
-      </c>
-      <c r="N23" s="11">
-        <v>45740</v>
-      </c>
-      <c r="O23" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="P23" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q23" s="13">
-        <v>70</v>
-      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>35</v>
-      </c>
+    <row r="24" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
       <c r="D24" s="10"/>
-      <c r="G24" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K24" s="11">
-        <v>33453</v>
-      </c>
+      <c r="K24" s="11"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="11">
-        <v>44637</v>
-      </c>
-      <c r="N24" s="11">
-        <v>48290</v>
-      </c>
-      <c r="O24" s="13">
-        <v>150000000</v>
-      </c>
-      <c r="P24" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q24" s="13">
-        <v>70</v>
-      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>36</v>
-      </c>
+    <row r="25" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
       <c r="D25" s="10"/>
-      <c r="G25" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K25" s="11">
-        <v>33454</v>
-      </c>
+      <c r="K25" s="11"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="11">
-        <v>44645</v>
-      </c>
-      <c r="N25" s="11">
-        <v>45376</v>
-      </c>
-      <c r="O25" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="P25" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>70</v>
-      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>37</v>
-      </c>
+    <row r="26" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D26" s="10"/>
-      <c r="G26" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" s="11">
-        <v>33455</v>
-      </c>
-      <c r="M26" s="14">
-        <v>44666</v>
-      </c>
-      <c r="N26" s="14">
-        <v>45031</v>
-      </c>
-      <c r="O26" s="13">
-        <v>300000000</v>
-      </c>
-      <c r="P26" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="13">
-        <v>70</v>
-      </c>
+      <c r="K26" s="11"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
-    <row r="27" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="11">
-        <v>33456</v>
-      </c>
-      <c r="M27" s="14">
-        <v>44658</v>
-      </c>
-      <c r="N27" s="14">
-        <v>45389</v>
-      </c>
-      <c r="O27" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="P27" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q27" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K28" s="11">
-        <v>33457</v>
-      </c>
-      <c r="M28" s="14">
-        <v>44662</v>
-      </c>
-      <c r="N28" s="14">
-        <v>45027</v>
-      </c>
-      <c r="O28" s="13">
-        <v>100000000</v>
-      </c>
-      <c r="P28" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q28" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" s="11">
-        <v>33458</v>
-      </c>
-      <c r="M29" s="14">
-        <v>44664</v>
-      </c>
-      <c r="N29" s="14">
-        <v>45760</v>
-      </c>
-      <c r="O29" s="13">
-        <v>25000000</v>
-      </c>
-      <c r="P29" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q29" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" s="11">
-        <v>33459</v>
-      </c>
-      <c r="M30" s="14">
-        <v>44665</v>
-      </c>
-      <c r="N30" s="14">
-        <v>45761</v>
-      </c>
-      <c r="O30" s="13">
-        <v>200000000</v>
-      </c>
-      <c r="P30" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q30" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" s="11">
-        <v>33460</v>
-      </c>
-      <c r="M31" s="14">
-        <v>44670</v>
-      </c>
-      <c r="N31" s="14">
-        <v>45766</v>
-      </c>
-      <c r="O31" s="13">
-        <v>300000000</v>
-      </c>
-      <c r="P31" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K32" s="11">
-        <v>33461</v>
-      </c>
-      <c r="M32" s="14">
-        <v>44670</v>
-      </c>
-      <c r="N32" s="14">
-        <v>45401</v>
-      </c>
-      <c r="O32" s="13">
-        <v>80000000</v>
-      </c>
-      <c r="P32" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q32" s="13">
-        <v>70</v>
-      </c>
+    <row r="27" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="11"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="11"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="11"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="11"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="11"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" spans="2:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="11"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
     </row>
     <row r="33" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K33" s="11">
-        <v>33462</v>
-      </c>
-      <c r="M33" s="14">
-        <v>44673</v>
-      </c>
-      <c r="N33" s="14">
-        <v>45404</v>
-      </c>
-      <c r="O33" s="13">
-        <v>25000000</v>
-      </c>
-      <c r="P33" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q33" s="13">
-        <v>70</v>
-      </c>
+      <c r="K33" s="11"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
     </row>
     <row r="34" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K34" s="11">
-        <v>33463</v>
-      </c>
-      <c r="M34" s="14">
-        <v>44673</v>
-      </c>
-      <c r="N34" s="14">
-        <v>45404</v>
-      </c>
-      <c r="O34" s="13">
-        <v>70000000</v>
-      </c>
-      <c r="P34" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q34" s="13">
-        <v>70</v>
-      </c>
+      <c r="K34" s="11"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
     </row>
     <row r="35" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K35" s="11">
-        <v>33464</v>
-      </c>
-      <c r="M35" s="14">
-        <v>44641</v>
-      </c>
-      <c r="N35" s="14">
-        <v>47198</v>
-      </c>
-      <c r="O35" s="13">
-        <v>200000000</v>
-      </c>
-      <c r="P35" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q35" s="13">
-        <v>70</v>
-      </c>
+      <c r="K35" s="11"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
     </row>
     <row r="36" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K36" s="11">
-        <v>33465</v>
-      </c>
-      <c r="M36" s="14">
-        <v>44672</v>
-      </c>
-      <c r="N36" s="14">
-        <v>45372</v>
-      </c>
-      <c r="O36" s="13">
-        <v>200000000</v>
-      </c>
-      <c r="P36" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q36" s="13">
-        <v>70</v>
-      </c>
+      <c r="K36" s="11"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
     </row>
     <row r="37" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K37" s="11">
-        <v>33466</v>
-      </c>
-      <c r="M37" s="14">
-        <v>44652</v>
-      </c>
-      <c r="N37" s="14">
-        <v>47239</v>
-      </c>
-      <c r="O37" s="13">
-        <v>282000000</v>
-      </c>
-      <c r="P37" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q37" s="13">
-        <v>70</v>
-      </c>
+      <c r="K37" s="11"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
     </row>
     <row r="38" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K38" s="11">
-        <v>33467</v>
-      </c>
-      <c r="M38" s="14">
-        <v>44657</v>
-      </c>
-      <c r="N38" s="14">
-        <v>45388</v>
-      </c>
-      <c r="O38" s="13">
-        <v>35000000</v>
-      </c>
-      <c r="P38" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q38" s="13">
-        <v>70</v>
-      </c>
+      <c r="K38" s="11"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
     </row>
     <row r="39" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K39" s="11">
-        <v>33468</v>
-      </c>
-      <c r="M39" s="14">
-        <v>44662</v>
-      </c>
-      <c r="N39" s="14">
-        <v>45758</v>
-      </c>
-      <c r="O39" s="13">
-        <v>30000000</v>
-      </c>
-      <c r="P39" s="13">
-        <v>160</v>
-      </c>
-      <c r="Q39" s="13">
-        <v>70</v>
-      </c>
+      <c r="K39" s="11"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
@@ -5617,11 +4329,6 @@
   </sheetData>
   <autoFilter ref="A2:U765" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:M2"/>
@@ -5630,6 +4337,11 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
